--- a/presentaciones.xlsx
+++ b/presentaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\OneDrive\Documentos\LAB-MAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2f577dda2fcbe77/Documentos/LAB-MAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C76E7781-9344-451C-8C2D-FACB494DB498}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{104DBCFA-5C40-42D3-B1E5-2565872915EA}"/>
   <bookViews>
     <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Estudiante</t>
   </si>
@@ -54,13 +54,121 @@
   </si>
   <si>
     <t>Salud</t>
+  </si>
+  <si>
+    <t>The Role of Artificial Intelligence in Early Cancer Diagnosis</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC8946688/pdf/cancers-14-01524.pdf</t>
+  </si>
+  <si>
+    <t>Francisco Villarroel</t>
+  </si>
+  <si>
+    <t>Mercado Laboral</t>
+  </si>
+  <si>
+    <t>Alejandro Martel</t>
+  </si>
+  <si>
+    <t>AI, Automation and New Jobs</t>
+  </si>
+  <si>
+    <t>https://www.scirp.org/journal/paperinformation?paperid=112070</t>
+  </si>
+  <si>
+    <t>Guillermo Montero</t>
+  </si>
+  <si>
+    <t>Inteligencia artificial en enfermedades infecciosas</t>
+  </si>
+  <si>
+    <t>https://revista.infectologia.info/index.php/revista/article/download/209/204/</t>
+  </si>
+  <si>
+    <t>Joaquín Arévalo</t>
+  </si>
+  <si>
+    <t>Ética de la IA</t>
+  </si>
+  <si>
+    <t>The global landscape of AI ethics guidelines</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s42256-019-0088-2</t>
+  </si>
+  <si>
+    <t>Juan Acevedo</t>
+  </si>
+  <si>
+    <t>Interacción humano-IA</t>
+  </si>
+  <si>
+    <t>Human-AI Interaction and User Satisfaction: Empirical Evidence from Online Reviews of AI Products</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2503.17955</t>
+  </si>
+  <si>
+    <t>Diego Carmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly accurate protein structure prediction with AlphaFold </t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-021-03819-2.pdf</t>
+  </si>
+  <si>
+    <t>Bryan Neira</t>
+  </si>
+  <si>
+    <t>Human-AI Interaction and AI Avatars</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/375910768_Human-AI_Interaction_and_AI_Avatars</t>
+  </si>
+  <si>
+    <t>Artificial intelligence (AI) -integrated educational applications and college students’ creativity and academic emotions: students and teachers’ perceptions and attitudes</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC11403842/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Meza </t>
+  </si>
+  <si>
+    <t>Interactive AI-Generated Virtual Instructors Enhance Learning Motivation and Engagement in Financial Education_x000D_</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-031-64312-5_26</t>
+  </si>
+  <si>
+    <t>Valentín Álvarez</t>
+  </si>
+  <si>
+    <t>IA generativa</t>
+  </si>
+  <si>
+    <t>Exploring Variational Auto-encoder Architectures, Configurations, and Datasets for Generative Music Explainable AI</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11633-023-1457-1</t>
+  </si>
+  <si>
+    <t>Joaquin Zapata</t>
+  </si>
+  <si>
+    <t>Artificial intelligence and Machine Learning approaches in sports: Concepts, applications, challenges, and future perspectives</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1413355524004891</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +180,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,14 +210,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,21 +502,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.83984375" customWidth="1"/>
+    <col min="2" max="2" width="20.20703125" customWidth="1"/>
+    <col min="3" max="3" width="146" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,15 +530,173 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{B7E3A752-5F31-4919-A1A0-0AC4800FC8D6}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{16F78ED4-42F8-474C-82FC-C92A8570347D}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{1AEAE276-1898-42EE-A98C-09308112D346}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>